--- a/data/trans_dic/P16A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>5,13; 9,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>6,5; 12,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>3,94; 8,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,66; 8,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>4,3; 8,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>9,2; 15,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>8,68; 14,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>4,61; 13,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,42; 8,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>8,64; 12,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>6,81; 10,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>4,07; 9,35</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,12%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,21; 6,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,38; 12,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>6,32; 11,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>7,11; 15,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,66; 10,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>7,11; 11,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>6,48; 10,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>5,4; 10,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,93; 7,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>7,71; 11,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>7,05; 10,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>7,09; 11,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,09%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,31; 8,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>6,23; 10,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,52; 9,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,49; 10,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,5; 9,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,53; 9,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,06; 10,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>5,0; 8,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,6; 8,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,52; 9,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,34; 9,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>5,62; 8,58</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>3,51; 7,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>5,65; 10,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>4,5; 8,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,32; 8,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,86; 6,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,27; 9,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,29; 9,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>5,21; 8,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,49; 6,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,27; 9,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,23; 8,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,12; 7,65</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,44%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>4,56; 9,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>6,76; 13,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>5,27; 10,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,12; 7,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>3,36; 7,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,19; 8,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>5,71; 11,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>7,33; 10,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>4,62; 7,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>5,83; 9,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>6,21; 9,87</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>6,24; 8,89</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>10,13; 15,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>10,16; 16,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>7,6; 12,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,56; 8,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,04; 8,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>6,38; 10,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,29; 10,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,21; 9,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>7,83; 11,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>8,6; 12,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>7,31; 10,45</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,87; 8,5</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,11; 7,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,38; 10,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,81; 8,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,93; 7,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,65; 7,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,3; 9,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,4; 9,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,63; 8,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,1; 7,31</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>8,17; 9,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,4; 8,78</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,58; 7,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,21%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,94</t>
+          <t>1,83; 9,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 13,57</t>
+          <t>4,54; 13,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,35</t>
+          <t>4,0; 9,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>8,91%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 15,34</t>
+          <t>7,52; 16,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,98</t>
+          <t>4,16; 10,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 11,63</t>
+          <t>6,4; 11,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,13%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,72</t>
+          <t>5,46; 10,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 8,63</t>
+          <t>5,08; 8,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,58</t>
+          <t>5,61; 8,58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>5,49%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,61</t>
+          <t>1,98; 7,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,04</t>
+          <t>5,0; 7,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,65</t>
+          <t>3,24; 7,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,87</t>
+          <t>4,14; 7,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 10,99</t>
+          <t>7,34; 10,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 8,89</t>
+          <t>6,24; 8,88</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>6,33%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,13; 15,9</t>
+          <t>6,91; 13,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,16; 16,27</t>
+          <t>7,19; 14,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,21</t>
+          <t>5,24; 10,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,87</t>
+          <t>6,05; 10,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,04; 8,8</t>
+          <t>5,89; 11,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,58</t>
+          <t>4,68; 10,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,9</t>
+          <t>5,0; 10,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,12</t>
+          <t>1,86; 8,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 11,15</t>
+          <t>7,27; 11,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,6; 12,01</t>
+          <t>6,63; 11,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 10,45</t>
+          <t>5,73; 9,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,5</t>
+          <t>3,2; 8,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>12,09; 22,13</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 21,6</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 16,87</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 8,37</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 7,43</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 12,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 13,1</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 10,93</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7,1; 12,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9,35; 14,85</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 13,19</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 9,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,02%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>6,11; 7,9</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>8,38; 10,51</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>6,81; 8,67</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 7,98</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 7,73</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>5,65; 7,33</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>7,3; 9,31</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>7,4; 9,33</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 8,36</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 8,01</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>6,1; 7,31</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>8,17; 9,64</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>7,4; 8,78</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 7,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 7,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,8</t>
+          <t>5,13; 9,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,02</t>
+          <t>6,69; 12,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 8,9</t>
+          <t>4,04; 8,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 9,67</t>
+          <t>1,95; 9,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,85</t>
+          <t>4,5; 8,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 15,67</t>
+          <t>8,94; 15,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,68; 14,95</t>
+          <t>8,64; 15,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 13,35</t>
+          <t>4,33; 12,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,55</t>
+          <t>5,41; 8,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,54</t>
+          <t>8,5; 12,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,78</t>
+          <t>6,94; 10,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,66</t>
+          <t>3,94; 9,69</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,45</t>
+          <t>3,23; 6,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 12,23</t>
+          <t>7,34; 12,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,13</t>
+          <t>6,56; 11,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 16,33</t>
+          <t>7,59; 15,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 10,37</t>
+          <t>5,58; 10,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 11,71</t>
+          <t>6,96; 12,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,85</t>
+          <t>6,18; 10,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,02</t>
+          <t>4,05; 9,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,42</t>
+          <t>4,87; 7,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 11,13</t>
+          <t>7,96; 11,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 10,52</t>
+          <t>6,9; 10,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 11,81</t>
+          <t>6,35; 11,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,27</t>
+          <t>4,41; 8,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,78</t>
+          <t>6,45; 11,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,49</t>
+          <t>5,53; 9,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 10,6</t>
+          <t>5,41; 10,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,9</t>
+          <t>5,55; 9,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,48</t>
+          <t>5,59; 9,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,21</t>
+          <t>6,24; 10,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,67</t>
+          <t>5,18; 8,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,35</t>
+          <t>5,49; 8,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,38</t>
+          <t>6,38; 9,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,22</t>
+          <t>6,26; 9,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,58</t>
+          <t>5,93; 8,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,41</t>
+          <t>3,33; 7,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,5</t>
+          <t>5,5; 10,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,62</t>
+          <t>4,4; 8,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,33</t>
+          <t>1,81; 7,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,59</t>
+          <t>2,7; 6,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,83</t>
+          <t>5,51; 10,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,48</t>
+          <t>5,11; 9,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,89</t>
+          <t>4,95; 8,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,41</t>
+          <t>3,55; 6,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,41</t>
+          <t>6,2; 9,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,04</t>
+          <t>5,29; 8,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,03</t>
+          <t>3,33; 6,92</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,68</t>
+          <t>4,71; 9,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,76; 13,23</t>
+          <t>6,45; 12,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,27; 10,46</t>
+          <t>5,42; 10,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,98</t>
+          <t>4,06; 8,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,8</t>
+          <t>3,47; 7,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,96</t>
+          <t>4,1; 8,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,11</t>
+          <t>5,97; 11,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,96</t>
+          <t>7,33; 11,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,84</t>
+          <t>4,49; 7,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,64</t>
+          <t>6,02; 9,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 9,87</t>
+          <t>6,25; 10,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 8,88</t>
+          <t>6,22; 8,8</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 13,97</t>
+          <t>7,04; 13,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,19; 14,56</t>
+          <t>7,09; 14,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,66</t>
+          <t>5,22; 11,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,05; 10,63</t>
+          <t>5,92; 10,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,89; 11,77</t>
+          <t>5,9; 11,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,68; 10,35</t>
+          <t>4,7; 10,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,86</t>
+          <t>5,17; 10,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 8,5</t>
+          <t>2,33; 8,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,87</t>
+          <t>7,13; 11,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,31</t>
+          <t>6,63; 11,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,7</t>
+          <t>5,82; 9,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,36</t>
+          <t>3,41; 8,6</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,09; 22,13</t>
+          <t>12,26; 22,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,76; 21,6</t>
+          <t>11,01; 21,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,87</t>
+          <t>9,16; 16,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,37</t>
+          <t>4,0; 8,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,43</t>
+          <t>2,72; 7,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,73</t>
+          <t>7,02; 13,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,06; 13,1</t>
+          <t>6,2; 12,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 10,93</t>
+          <t>7,04; 10,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,24</t>
+          <t>7,15; 12,07</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,35; 14,85</t>
+          <t>9,2; 14,72</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,87; 13,19</t>
+          <t>7,88; 13,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,21</t>
+          <t>6,28; 9,18</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,11; 7,9</t>
+          <t>6,01; 7,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,38; 10,51</t>
+          <t>8,47; 10,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,81; 8,67</t>
+          <t>6,79; 8,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,73</t>
+          <t>5,06; 7,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,65; 7,33</t>
+          <t>5,54; 7,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,3; 9,31</t>
+          <t>7,48; 9,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,4; 9,33</t>
+          <t>7,37; 9,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,01</t>
+          <t>5,79; 8,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,31</t>
+          <t>6,09; 7,37</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,17; 9,64</t>
+          <t>8,16; 9,58</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,78</t>
+          <t>7,32; 8,66</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,96; 7,62</t>
+          <t>6,02; 7,73</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>35348</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>41490</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>25645</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19192</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>29954</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>51300</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45490</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25092</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65302</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>92791</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>71135</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>44284</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25334; 48013</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30334; 56579</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16941; 36967</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7803; 37880</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21052; 41271</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>38387; 65200</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34187; 59407</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13566; 39923</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52066; 80308</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>75001; 112447</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>56609; 87829</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>28082; 69101</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>34416</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65431</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51683</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47738</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>47367</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>56850</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46723</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35583</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>81782</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>122281</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>98406</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>83321</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23768; 47262</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50354; 82645</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38755; 67755</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32154; 66568</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>34908; 63753</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>42431; 73278</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>34836; 59757</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20692; 49990</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>66327; 102751</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>103063; 147908</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>79572; 119772</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>59381; 108088</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39195</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56671</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>49237</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40345</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>51389</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>51924</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52916</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>36485</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>90585</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>108595</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>102152</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>76830</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28106; 53756</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>43856; 76596</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36984; 63854</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29030; 54189</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38293; 68218</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39449; 68124</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41276; 67921</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28061; 48017</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>72832; 110684</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>88402; 128071</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>83329; 123393</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>63963; 96183</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>26776</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>48013</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40725</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>42188</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21808</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>46201</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>44708</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45697</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48584</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>94214</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>85433</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>87885</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17302; 39393</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33798; 62682</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>28416; 55275</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16043; 64363</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13946; 32656</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>33834; 61602</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33180; 59856</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>35307; 57265</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>36709; 68088</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>76151; 114567</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>68492; 106305</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53377; 110690</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>26362</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39943</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36957</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32946</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21366</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27162</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>41376</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>49343</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>47727</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>67105</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>78332</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>82289</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18217; 37334</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>27617; 54125</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>25914; 51533</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22731; 44850</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14012; 31316</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18305; 39490</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29647; 55155</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39941; 60585</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>35500; 61980</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>52689; 85962</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>60967; 97521</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>68771; 97235</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>29369</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>32028</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>25416</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>29875</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>29149</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>25339</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>28106</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>31904</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>58518</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>57367</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>53521</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>61780</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>20611; 40621</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>21832; 44057</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>17442; 37637</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>21786; 39360</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>20227; 40308</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>16596; 36203</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19521; 41363</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14160; 52001</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>45339; 74798</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>43841; 74409</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>41421; 69978</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>33314; 83962</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>35253</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>39411</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>31471</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>16348</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>16053</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>36181</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>35960</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>37388</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>51306</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>75592</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>67431</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>53736</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>25730; 47279</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>27424; 52597</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>23548; 42559</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>11317; 23143</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>9085; 26233</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>27158; 50499</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>24830; 51433</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>29881; 46051</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>38870; 65617</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>58506; 93569</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>51775; 85905</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>44377; 64922</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>226720</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>322987</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>261133</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>228631</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>217084</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>294958</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>295278</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>261492</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>443804</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>617945</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>556411</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>490123</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>196981; 255794</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>289602; 364737</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>230616; 296394</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>174870; 265333</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>187296; 248215</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>265277; 330185</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>261087; 328950</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>211773; 296798</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>405507; 490355</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>568021; 667252</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>508103; 600878</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>428685; 549704</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>